--- a/data/GASY_gas.xlsx
+++ b/data/GASY_gas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE52C4C2-B43C-374B-9282-6D304D9369AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDF9CC-737C-3F47-9BB4-6E744E1B7CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
+    <workbookView xWindow="33140" yWindow="4980" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,13 +411,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,44 +425,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_gas.xlsx
+++ b/data/GASY_gas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDF9CC-737C-3F47-9BB4-6E744E1B7CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C41A5AD-8A19-B04A-9523-E25E11113F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33140" yWindow="4980" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Level</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Decline</t>
+  </si>
+  <si>
+    <t>35 to 45 minutes</t>
+  </si>
+  <si>
+    <t>25 to 35 minutes</t>
+  </si>
+  <si>
+    <t>15 to 25 minutes</t>
+  </si>
+  <si>
+    <t>5 to 15 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 5 minutes </t>
   </si>
 </sst>
 </file>
@@ -89,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,19 +421,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604ACFE3-5C9E-2547-A3BE-758F4E359252}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,44 +441,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_gas.xlsx
+++ b/data/GASY_gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C41A5AD-8A19-B04A-9523-E25E11113F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EAAC2-67C2-D64C-A42D-08D2C96C6FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33140" yWindow="4980" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,19 @@
     <t>Decline</t>
   </si>
   <si>
-    <t>35 to 45 minutes</t>
-  </si>
-  <si>
-    <t>25 to 35 minutes</t>
-  </si>
-  <si>
-    <t>15 to 25 minutes</t>
-  </si>
-  <si>
-    <t>5 to 15 minutes</t>
-  </si>
-  <si>
     <t xml:space="preserve">0 to 5 minutes </t>
+  </si>
+  <si>
+    <t>6 to 15 minutes</t>
+  </si>
+  <si>
+    <t>16 to 25 minutes</t>
+  </si>
+  <si>
+    <t>26 to 35 minutes</t>
+  </si>
+  <si>
+    <t>36 to 45 minutes</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
